--- a/settings/zh-CN/template_effects.xlsx
+++ b/settings/zh-CN/template_effects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\projects\game_mod\against_storm\export_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\projects\game_mod\against_storm\export_analysis\settings\zh-CN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7320FC1-D66D-4C59-B008-CDE65994E225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC63C822-DCC0-43F9-B3B8-0EE90813C57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>这个表格正在修订中</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>m0.2.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +128,14 @@
   </si>
   <si>
     <t>https://github.com/Forwindzz/ATSUnpackToExcel</t>
+  </si>
+  <si>
+    <t>m0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新游戏1.5版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -477,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -506,14 +510,14 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>22</v>
+      <c r="B3">
+        <v>0.3</v>
       </c>
       <c r="C3">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="D3" s="2">
-        <v>45594</v>
+        <v>45631</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -521,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -529,7 +533,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -614,12 +618,22 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
